--- a/11_KS_연도별_보고서작성/Data/Config.xlsx
+++ b/11_KS_연도별_보고서작성/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\11_KS_연도별_보고서작성\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6BE10A-1869-44FC-AFF3-7A41ECB9509C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B69AAE0-712D-4B45-9B27-0AD15AE0ED63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-2370" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6390" yWindow="-11580" windowWidth="17910" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="142">
   <si>
     <t>Name</t>
   </si>
@@ -187,19 +187,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>트랜잭션 소스로 사용되는 데이터가 스프레드시트인 경우의 데이터 파일</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>스프레드시트의 시트명 (트랜잭션 데이터)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>transaction</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>프로세스_이름</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -468,10 +460,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>년간 리포트 파일 경로</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>출력 파일 경로</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -504,10 +492,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>년간 리포트 시트명</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>KS_Vendor_Information_Template</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -536,10 +520,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Data\Input\TransactionData.xlsx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Account_ACME_ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -557,6 +537,39 @@
   </si>
   <si>
     <t>Windows 또는 Orchestrator의 Assets의 자격증명 이용시, 빈값 설정</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>트랜잭션 소스로 사용되는 데이터가 스프레드시트인 경우의 데이터 파일
+샘플 파일을 수정하여 사용하거나 덮어쓰기해서 활용</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data\Input\SampleTransactionData.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>연간 리포트 파일 경로</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>연간 리포트 시트명</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>연도별_보고서작성</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data\Temp\Backup_{Now}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>임시 파일 백업용 저장 폴더 경로</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Folder_TempBackup</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -996,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z28"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1050,18 +1063,18 @@
         <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -1069,7 +1082,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>28</v>
@@ -1086,202 +1099,213 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="33">
       <c r="A9" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>45</v>
+        <v>135</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" s="10" customFormat="1">
-      <c r="A14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="11" t="s">
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" s="10" customFormat="1">
-      <c r="A15" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="11" t="s">
+      <c r="C16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="10" customFormat="1">
-      <c r="A16" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="10" customFormat="1">
-      <c r="A17" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>72</v>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="10" customFormat="1">
       <c r="A18" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="10" customFormat="1">
       <c r="A19" s="10" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="10" customFormat="1">
       <c r="A20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="10" customFormat="1">
+      <c r="A21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>132</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1295,7 +1319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1410,34 +1434,34 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1452,7 +1476,7 @@
   <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1635,98 +1659,98 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3" s="5">
         <v>587</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="49.5">
       <c r="A11" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1741,7 +1765,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1769,68 +1793,68 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/11_KS_연도별_보고서작성/Data/Config.xlsx
+++ b/11_KS_연도별_보고서작성/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\11_KS_연도별_보고서작성\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B69AAE0-712D-4B45-9B27-0AD15AE0ED63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD70323-9AF3-4570-A0D0-ED3025F1BC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6390" yWindow="-11580" windowWidth="17910" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6435" yWindow="-14130" windowWidth="17910" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="138">
   <si>
     <t>Name</t>
   </si>
@@ -440,30 +440,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Data\Temp\Report-{TaxID}-{Year}-{Month}.csv</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Data\Temp\Yearly-Report-{Year}-{TaxID}.xlsx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Data\Input\KS_Vendor_Information_Template.xlsx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Data\Output\KS Vendor Information {Year} Yearly Report.xlsx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>월간 리포트 파일 경로</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>출력 파일 경로</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Path_Transaction</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -497,10 +473,6 @@
   </si>
   <si>
     <t>Sheet_OutputTemp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>출력 템플릿 파일 경로</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -549,10 +521,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>연간 리포트 파일 경로</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>연간 리포트 시트명</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -570,6 +538,22 @@
   </si>
   <si>
     <t>Folder_TempBackup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>월간 리포트 파일 경로 (자동생성)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>연간 리포트 파일 경로 (자동생성)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>출력 템플릿 파일 경로 (자동생성)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>출력 파일 경로 (자동생성)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -643,7 +627,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -689,11 +673,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z29"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1082,7 +1072,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>28</v>
@@ -1101,18 +1091,18 @@
     </row>
     <row r="9" spans="1:26" ht="33">
       <c r="A9" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>46</v>
@@ -1167,145 +1157,155 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="10" customFormat="1">
-      <c r="A18" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="10" customFormat="1">
       <c r="A19" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="10" customFormat="1">
       <c r="A20" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="10" customFormat="1">
       <c r="A21" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="10" customFormat="1">
+      <c r="A22" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B22" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>118</v>
-      </c>
+    <row r="23" spans="1:3" s="10" customFormat="1">
+      <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>136</v>
+        <v>105</v>
+      </c>
+      <c r="B24" s="12" t="str">
+        <f>$B$16 &amp; "\" &amp; $B$19</f>
+        <v>Data\Temp\Report-{TaxID}-{Year}-{Month}.csv</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>137</v>
+        <v>106</v>
+      </c>
+      <c r="B25" s="12" t="str">
+        <f>$B$16 &amp; "\" &amp; $B$20</f>
+        <v>Data\Temp\Yearly-Report-{Year}-{TaxID}.xlsx</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>124</v>
+      <c r="B26" s="12" t="str">
+        <f>$B$14 &amp; "\" &amp; $B$21</f>
+        <v>Data\Input\KS_Vendor_Information_Template.xlsx</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="B27" s="12" t="str">
+        <f>$B$15 &amp; "\" &amp; $B$22</f>
+        <v>Data\Output\KS Vendor Information {Year} Yearly Report.xlsx</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="10" customFormat="1">
+      <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="4" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>128</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1434,34 +1434,34 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1765,7 +1765,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>

--- a/11_KS_연도별_보고서작성/Data/Config.xlsx
+++ b/11_KS_연도별_보고서작성/Data/Config.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\11_KS_연도별_보고서작성\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD70323-9AF3-4570-A0D0-ED3025F1BC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92437126-C3A0-4DAD-BD8A-398D3909B859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6435" yWindow="-14130" windowWidth="17910" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6735" yWindow="-11100" windowWidth="17910" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="141">
   <si>
     <t>Name</t>
   </si>
@@ -290,10 +290,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>File_OutputTemp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>출력 파일의 템플릿 파일 이름</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -432,10 +428,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Path_OutputTemp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Path_Output</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -469,10 +461,6 @@
   </si>
   <si>
     <t>KS_Vendor_Information_Template</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sheet_OutputTemp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -554,6 +542,30 @@
   </si>
   <si>
     <t>출력 파일 경로 (자동생성)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cell_Output</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>출력 파일 시작 셀</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>File_Input</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Path_Input</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sheet_Input</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -644,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -672,12 +684,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -999,10 +1005,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z32"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1072,7 +1079,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>28</v>
@@ -1091,18 +1098,18 @@
     </row>
     <row r="9" spans="1:26" ht="33">
       <c r="A9" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>46</v>
@@ -1113,13 +1120,13 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1157,155 +1164,160 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="10" customFormat="1">
-      <c r="A19" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="10" customFormat="1">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="10" customFormat="1">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="10" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" s="10" customFormat="1">
-      <c r="A22" s="10" t="s">
+      <c r="B22" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="C22" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="10" customFormat="1">
-      <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="12" t="str">
+        <v>104</v>
+      </c>
+      <c r="B24" s="10" t="str">
         <f>$B$16 &amp; "\" &amp; $B$19</f>
         <v>Data\Temp\Report-{TaxID}-{Year}-{Month}.csv</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>134</v>
+      <c r="C24" s="11" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="12" t="str">
-        <f>$B$16 &amp; "\" &amp; $B$20</f>
-        <v>Data\Temp\Yearly-Report-{Year}-{TaxID}.xlsx</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>135</v>
+        <v>105</v>
+      </c>
+      <c r="B25" s="10" t="str">
+        <f>$B$15 &amp; "\" &amp; $B$20</f>
+        <v>Data\Output\Yearly-Report-{Year}-{TaxID}.xlsx</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="12" t="str">
+        <v>139</v>
+      </c>
+      <c r="B26" s="10" t="str">
         <f>$B$14 &amp; "\" &amp; $B$21</f>
         <v>Data\Input\KS_Vendor_Information_Template.xlsx</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>136</v>
+      <c r="C26" s="11" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="12" t="str">
+        <v>106</v>
+      </c>
+      <c r="B27" s="10" t="str">
         <f>$B$15 &amp; "\" &amp; $B$22</f>
         <v>Data\Output\KS Vendor Information {Year} Yearly Report.xlsx</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="10" customFormat="1">
-      <c r="B28" s="11"/>
+      <c r="C27" s="11" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1317,10 +1329,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1434,34 +1447,34 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1473,6 +1486,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3E2813-A082-4DA7-9FF7-77658EB1C09D}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1608,6 +1622,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F89829D-5DFA-4699-B08A-CFCEC1229AE7}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1659,98 +1674,98 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="5">
         <v>587</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="49.5">
       <c r="A11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1762,10 +1777,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1804,10 +1820,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>50</v>

--- a/11_KS_연도별_보고서작성/Data/Config.xlsx
+++ b/11_KS_연도별_보고서작성/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\11_KS_연도별_보고서작성\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92437126-C3A0-4DAD-BD8A-398D3909B859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A78B49-C6BB-4F81-9C1B-CD3111806365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6735" yWindow="-11100" windowWidth="17910" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6420" yWindow="-16845" windowWidth="17235" windowHeight="12165" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="LogMessages" sheetId="5" r:id="rId3"/>
     <sheet name="Emails" sheetId="4" r:id="rId4"/>
     <sheet name="Assets" sheetId="3" r:id="rId5"/>
+    <sheet name="Assets_tmp" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="149">
   <si>
     <t>Name</t>
   </si>
@@ -330,16 +331,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>KS_연도별_보고서작성_결과보고_{이름}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕하세요.
-KS_연도별_보고서작성_결과물을 보내드립니다.
-감사합니다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Mail_SendServer</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -493,10 +484,6 @@
   </si>
   <si>
     <t>Account_Email_PW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Windows 또는 Orchestrator의 Assets의 자격증명 이용시, 빈값 설정</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -566,6 +553,52 @@
   </si>
   <si>
     <t>Sheet_Input</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Email_Account</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>System1_Account</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>윈도우 자격증명 이용, 미사용시 직접 입력 (이름_ID, 이름_PW)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows 또는 Orchestrator Assets 자격증명을 이용하지 않을 경우 직접 입력</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>이메일 로그인 아이디 직접 입력</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>이메일 로그인 암호 직접 입력</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사이트(ACME) 로그인 아이디 직접 입력</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사이트(ACME) 로그인 암호 직접 입력</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>운영담당자님 안녕하세요. 
+{연도}년도 KS 연도별 보고서 작성 결과물을 보내드립니다.
+감사합니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>KS_연도별_보고서작성_결과보고_({이름})</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>윈도우 자격증명 이용, Assets시트에 같은 이름 존재시 Assets시트 우선</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1008,8 +1041,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1079,7 +1115,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>28</v>
@@ -1098,18 +1134,18 @@
     </row>
     <row r="9" spans="1:26" ht="33">
       <c r="A9" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>46</v>
@@ -1164,13 +1200,13 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1197,7 +1233,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>71</v>
@@ -1219,105 +1255,105 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B24" s="10" t="str">
         <f>$B$16 &amp; "\" &amp; $B$19</f>
         <v>Data\Temp\Report-{TaxID}-{Year}-{Month}.csv</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B25" s="10" t="str">
         <f>$B$15 &amp; "\" &amp; $B$20</f>
         <v>Data\Output\Yearly-Report-{Year}-{TaxID}.xlsx</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B26" s="10" t="str">
         <f>$B$14 &amp; "\" &amp; $B$21</f>
         <v>Data\Input\KS_Vendor_Information_Template.xlsx</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B27" s="10" t="str">
         <f>$B$15 &amp; "\" &amp; $B$22</f>
         <v>Data\Output\KS Vendor Information {Year} Yearly Report.xlsx</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1330,10 +1366,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1446,35 +1485,25 @@
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="4" t="s">
-        <v>119</v>
+      <c r="A10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="4" t="s">
-        <v>120</v>
+      <c r="A11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1490,7 +1519,10 @@
   <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1625,8 +1657,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1674,76 +1709,76 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" s="5">
         <v>587</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1751,21 +1786,21 @@
         <v>81</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="49.5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="99">
       <c r="A11" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1781,7 +1816,10 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1807,28 +1845,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
         <v>52</v>
@@ -1841,8 +1857,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8" t="s">
-        <v>55</v>
+      <c r="A5" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>55</v>
@@ -1852,8 +1868,8 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8" t="s">
-        <v>54</v>
+      <c r="A6" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>54</v>
@@ -1878,4 +1894,182 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C0CFF8-1860-41AE-8401-CF0C6C0583A2}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="14.42578125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>
--- a/11_KS_연도별_보고서작성/Data/Config.xlsx
+++ b/11_KS_연도별_보고서작성/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\11_KS_연도별_보고서작성\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A78B49-C6BB-4F81-9C1B-CD3111806365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA5875F-C553-404F-9D2D-D6025EB1736C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6420" yWindow="-16845" windowWidth="17235" windowHeight="12165" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6180" yWindow="-15045" windowWidth="16920" windowHeight="12375" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="154">
   <si>
     <t>Name</t>
   </si>
@@ -163,12 +163,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>허용되는 시스템에러 최대설정개수 (활성화 하려면 양수값 설정)
-시스템에러 발생 횟수가 최대설정개수에 도달시 작업 종료
-※ 이 기능을 비활성화 하려면 0 설정</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>시스템에러시 스크린샷 캡처 이미지 저장 폴더 경로</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -600,6 +594,35 @@
   <si>
     <t>윈도우 자격증명 이용, Assets시트에 같은 이름 존재시 Assets시트 우선</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MaxTransactionNumber</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>허용되는 시스템에러 최대개수 (활성화 하려면 양수값 설정)
+시스템에러 발생 횟수가 최대설정개수에 도달시 작업 종료
+※ 이 기능을 비활성화 하려면 0 설정</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>처리할 트랜잭션 최대 개수 설정 (활성화 하려면 양수값 설정)
+※ 이 기능을 비활성화 하려면 0 설정 (전체 실행)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mail_Body_NoData</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메일 내용 (처리대상이 존재하지 않은 경우)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영담당자님 안녕하세요. 
+{연도}년도 KS 연도별 보고서 작성 대상이 존재하지 않아 처리가 종료되었음을 알려드립니다.
+감사합니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1039,13 +1062,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:Z35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1096,136 +1119,141 @@
         <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>28</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
+      <c r="A7" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="33">
-      <c r="A9" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="33">
+      <c r="A10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="4" t="s">
+      <c r="C11" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>69</v>
@@ -1233,127 +1261,138 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="10" t="str">
-        <f>$B$16 &amp; "\" &amp; $B$19</f>
-        <v>Data\Temp\Report-{TaxID}-{Year}-{Month}.csv</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B25" s="10" t="str">
-        <f>$B$15 &amp; "\" &amp; $B$20</f>
-        <v>Data\Output\Yearly-Report-{Year}-{TaxID}.xlsx</v>
+        <f>$B$17 &amp; "\" &amp; $B$20</f>
+        <v>Data\Temp\Report-{TaxID}-{Year}-{Month}.csv</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="B26" s="10" t="str">
-        <f>$B$14 &amp; "\" &amp; $B$21</f>
-        <v>Data\Input\KS_Vendor_Information_Template.xlsx</v>
+        <f>$B$16 &amp; "\" &amp; $B$21</f>
+        <v>Data\Output\Yearly-Report-{Year}-{TaxID}.xlsx</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="B27" s="10" t="str">
         <f>$B$15 &amp; "\" &amp; $B$22</f>
+        <v>Data\Input\KS_Vendor_Information_Template.xlsx</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="10" t="str">
+        <f>$B$16 &amp; "\" &amp; $B$23</f>
         <v>Data\Output\KS Vendor Information {Year} Yearly Report.xlsx</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>108</v>
+      <c r="C28" s="11" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1366,13 +1405,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1426,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="49.5">
@@ -1437,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -1464,13 +1503,13 @@
     </row>
     <row r="7" spans="1:26" ht="66">
       <c r="A7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="5" t="b">
         <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="49.5">
@@ -1484,26 +1523,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="4" t="s">
+    <row r="10" spans="1:26" ht="33">
+      <c r="A10" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>148</v>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1655,13 +1683,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F89829D-5DFA-4699-B08A-CFCEC1229AE7}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1709,98 +1737,109 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="5">
         <v>587</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="99">
       <c r="A11" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="99">
+      <c r="A12" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1858,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1845,48 +1884,70 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1898,13 +1959,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C0CFF8-1860-41AE-8401-CF0C6C0583A2}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+  </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:C7"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1932,134 +1996,134 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="2:4">

--- a/11_KS_연도별_보고서작성/Data/Config.xlsx
+++ b/11_KS_연도별_보고서작성/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\11_KS_연도별_보고서작성\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA5875F-C553-404F-9D2D-D6025EB1736C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1690FCF2-DAA3-4AAF-A64F-1829FD0F0BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6180" yWindow="-15045" windowWidth="16920" windowHeight="12375" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5835" yWindow="-21270" windowWidth="15750" windowHeight="17055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -680,7 +680,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -699,6 +699,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -712,7 +718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -744,7 +750,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1064,11 +1079,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1300,7 +1315,7 @@
         <f>$B$17 &amp; "\" &amp; $B$20</f>
         <v>Data\Temp\Report-{TaxID}-{Year}-{Month}.csv</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="14" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1312,7 +1327,7 @@
         <f>$B$16 &amp; "\" &amp; $B$21</f>
         <v>Data\Output\Yearly-Report-{Year}-{TaxID}.xlsx</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="14" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1324,7 +1339,7 @@
         <f>$B$15 &amp; "\" &amp; $B$22</f>
         <v>Data\Input\KS_Vendor_Information_Template.xlsx</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1336,7 +1351,7 @@
         <f>$B$16 &amp; "\" &amp; $B$23</f>
         <v>Data\Output\KS Vendor Information {Year} Yearly Report.xlsx</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="14" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1407,11 +1422,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1501,37 +1516,37 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="66">
+    <row r="7" spans="1:26" ht="33">
       <c r="A7" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="66">
+      <c r="A9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="5" t="b">
+      <c r="B9" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="49.5">
-      <c r="A8" s="4" t="s">
+    <row r="10" spans="1:26" ht="49.5">
+      <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="5" t="b">
+      <c r="B10" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="33">
-      <c r="A10" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1686,10 +1701,10 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1858,7 +1873,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1962,13 +1977,13 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -2060,76 +2075,72 @@
         <v>49</v>
       </c>
     </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
     <row r="13" spans="1:4">
-      <c r="B13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="A13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="4" t="s">
+    <row r="15" spans="1:4" s="13" customFormat="1">
+      <c r="A15" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="B15" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="C15" s="11" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="4" t="s">
+    <row r="16" spans="1:4" s="13" customFormat="1">
+      <c r="A16" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="B16" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="C16" s="11" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="4" t="s">
+    <row r="17" spans="1:3" s="13" customFormat="1">
+      <c r="A17" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="B17" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="C17" s="11" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="4" t="s">
+    <row r="18" spans="1:3" s="13" customFormat="1">
+      <c r="A18" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="B18" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="C18" s="11" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/11_KS_연도별_보고서작성/Data/Config.xlsx
+++ b/11_KS_연도별_보고서작성/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\11_KS_연도별_보고서작성\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1690FCF2-DAA3-4AAF-A64F-1829FD0F0BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5A7FDA-952A-4C0F-B973-4C904A4695EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5835" yWindow="-21270" windowWidth="15750" windowHeight="17055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5835" yWindow="-21270" windowWidth="15750" windowHeight="17055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -718,7 +718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -757,9 +757,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1079,7 +1076,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1315,7 +1312,7 @@
         <f>$B$17 &amp; "\" &amp; $B$20</f>
         <v>Data\Temp\Report-{TaxID}-{Year}-{Month}.csv</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="4" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1327,7 +1324,7 @@
         <f>$B$16 &amp; "\" &amp; $B$21</f>
         <v>Data\Output\Yearly-Report-{Year}-{TaxID}.xlsx</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="4" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1339,7 +1336,7 @@
         <f>$B$15 &amp; "\" &amp; $B$22</f>
         <v>Data\Input\KS_Vendor_Information_Template.xlsx</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="4" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1351,7 +1348,7 @@
         <f>$B$16 &amp; "\" &amp; $B$23</f>
         <v>Data\Output\KS Vendor Information {Year} Yearly Report.xlsx</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="4" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1422,11 +1419,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
